--- a/Logs/5th Week Logs.xlsx
+++ b/Logs/5th Week Logs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10768F20-500A-4220-AB67-D2EA5AA6B49B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7697C6-859C-467E-9135-327BB7794C24}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -68,12 +68,6 @@
   </si>
   <si>
     <t>Date:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lecture </t>
-  </si>
-  <si>
-    <t>Class</t>
   </si>
 </sst>
 </file>
@@ -451,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -470,8 +464,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -804,7 +796,7 @@
   <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,50 +812,50 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="5" spans="2:11" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="35" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="34">
         <v>43521</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="38"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
@@ -908,185 +900,175 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="39">
+      <c r="B8" s="37">
         <v>1</v>
       </c>
       <c r="C8" s="8">
         <v>43521</v>
       </c>
-      <c r="D8" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0.72916666666666663</v>
+      <c r="D8" s="14">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.84375</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="13">
-        <v>90</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="G8" s="12">
+        <v>125</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="42"/>
+      <c r="K8" s="40"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="40">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8">
-        <v>43521</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0.75694444444444453</v>
-      </c>
-      <c r="E9" s="16"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="14"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="46"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="43"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="40"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="46"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="43"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="40"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="14"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="22"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="43"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="40"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="46"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="43"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="14"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="46"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="43"/>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="40"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="14"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="45"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="43"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="40"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="14"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="23"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="43"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="40"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="14"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="23"/>
+      <c r="I16" s="21"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="43"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="40"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="14"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="24"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="43"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="40"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="14"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="23"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="43"/>
+      <c r="K18" s="41"/>
     </row>
     <row r="19" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="41"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="15"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="25"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="44"/>
+      <c r="K19" s="42"/>
     </row>
     <row r="20" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="18">
         <f>SUM(G8:G19)</f>
-        <v>90</v>
-      </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="21"/>
+        <v>125</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logs/5th Week Logs.xlsx
+++ b/Logs/5th Week Logs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7697C6-859C-467E-9135-327BB7794C24}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2513F9-1073-4CD7-B50B-902744F578CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Date:</t>
+  </si>
+  <si>
+    <t>Proge.</t>
+  </si>
+  <si>
+    <t>Starting MVC EF learning</t>
   </si>
 </sst>
 </file>
@@ -796,7 +802,7 @@
   <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,8 +922,12 @@
       <c r="G8" s="12">
         <v>125</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="20"/>
+      <c r="H8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="40"/>
     </row>

--- a/Logs/5th Week Logs.xlsx
+++ b/Logs/5th Week Logs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2513F9-1073-4CD7-B50B-902744F578CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA3A580-4764-46A8-A07C-98196952CA8C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -802,7 +802,7 @@
   <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="8">
-        <v>43521</v>
+        <v>43522</v>
       </c>
       <c r="D8" s="14">
         <v>0.75694444444444453</v>

--- a/Logs/5th Week Logs.xlsx
+++ b/Logs/5th Week Logs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA3A580-4764-46A8-A07C-98196952CA8C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF700B63-7756-42E8-BBEA-18DED538E4AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -74,6 +74,36 @@
   </si>
   <si>
     <t>Starting MVC EF learning</t>
+  </si>
+  <si>
+    <t>MVC EF learning</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Find A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Russian Variant of Lecture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and relearning all from starting point</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -451,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -517,6 +547,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -802,7 +835,7 @@
   <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,38 +965,80 @@
       <c r="K8" s="40"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="38"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="38">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>43523</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.55208333333333337</v>
+      </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="44"/>
+      <c r="G9" s="12">
+        <v>120</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="41"/>
     </row>
     <row r="10" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="B10" s="38">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8">
+        <v>43523</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="44"/>
+      <c r="G10" s="12">
+        <v>120</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+    <row r="11" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="38">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8">
+        <v>43523</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.75694444444444453</v>
+      </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="20"/>
+      <c r="G11" s="12">
+        <v>70</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>17</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="41"/>
     </row>
@@ -1073,7 +1148,7 @@
       </c>
       <c r="G20" s="18">
         <f>SUM(G8:G19)</f>
-        <v>125</v>
+        <v>435</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>

--- a/Logs/5th Week Logs.xlsx
+++ b/Logs/5th Week Logs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF700B63-7756-42E8-BBEA-18DED538E4AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA79846-7ECA-4499-98A4-23920279D338}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -835,7 +835,7 @@
   <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,14 +1043,24 @@
       <c r="K11" s="41"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="38">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8">
+        <v>43524</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="4"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="44"/>
+      <c r="H12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="41"/>
     </row>

--- a/Logs/5th Week Logs.xlsx
+++ b/Logs/5th Week Logs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA79846-7ECA-4499-98A4-23920279D338}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EEE98B-A7CC-4541-86B6-C81423ECF322}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -835,7 +835,7 @@
   <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1052,9 +1052,15 @@
       <c r="D12" s="14">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="12"/>
+      <c r="E12" s="14">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="F12" s="4">
+        <v>40</v>
+      </c>
+      <c r="G12" s="12">
+        <v>315</v>
+      </c>
       <c r="H12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1158,7 +1164,7 @@
       </c>
       <c r="G20" s="18">
         <f>SUM(G8:G19)</f>
-        <v>435</v>
+        <v>750</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>

--- a/Logs/5th Week Logs.xlsx
+++ b/Logs/5th Week Logs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EEE98B-A7CC-4541-86B6-C81423ECF322}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7340A3-D81F-4D93-866A-CEA7E895020D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -104,6 +104,18 @@
       </rPr>
       <t xml:space="preserve"> and relearning all from starting point</t>
     </r>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helping my friend to solve problems with VS + MVC </t>
+  </si>
+  <si>
+    <t>Practise</t>
+  </si>
+  <si>
+    <t>In class</t>
   </si>
 </sst>
 </file>
@@ -546,10 +558,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -835,7 +847,7 @@
   <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,7 +1048,7 @@
       <c r="H11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="44" t="s">
         <v>17</v>
       </c>
       <c r="J11" s="4"/>
@@ -1070,27 +1082,57 @@
       <c r="J12" s="4"/>
       <c r="K12" s="41"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="44"/>
+    <row r="13" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="38">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8">
+        <v>43528</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F13" s="4">
+        <v>10</v>
+      </c>
+      <c r="G13" s="12">
+        <v>120</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>19</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="41"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="38"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="B14" s="38">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5">
+        <v>43525</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="43"/>
+      <c r="G14" s="12">
+        <v>120</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="41"/>
     </row>
@@ -1164,7 +1206,7 @@
       </c>
       <c r="G20" s="18">
         <f>SUM(G8:G19)</f>
-        <v>750</v>
+        <v>990</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
